--- a/xlsx/美墨战争_intext.xlsx
+++ b/xlsx/美墨战争_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
   <si>
     <t>美墨战争</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%98%E4%BA%89</t>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E8%8F%B2%E5%B0%94%E5%BE%B7%C2%B7%E6%96%AF%E7%A7%91%E7%89%B9</t>
@@ -29,7 +29,7 @@
     <t>温菲尔德·斯科特</t>
   </si>
   <si>
-    <t>政策_政策_加州_美墨战争</t>
+    <t>政策_政策_美国_美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E8%BE%BE%E5%8D%A2%E4%BD%A9-%E4%BC%8A%E8%BE%BE%E5%B0%94%E6%88%88%E6%9D%A1%E7%BA%A6</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%89%B2%E8%AE%93%E5%9C%B0</t>
   </si>
   <si>
-    <t>墨西哥割讓地</t>
+    <t>墨西哥割让地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%88%E7%9C%BE%E5%9C%8B_(1824%E2%80%931864)</t>
   </si>
   <si>
-    <t>墨西哥合眾國 (1824–1864)</t>
+    <t>墨西哥合众国 (1824–1864)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%AF%BA%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E5%B0%94%E5%85%8B</t>
@@ -95,13 +95,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>德克薩斯共和國</t>
+    <t>德克萨斯共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A9%E5%BC%A0%E4%B8%BB%E4%B9%89</t>
@@ -119,15 +116,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E6%B2%B3</t>
   </si>
   <si>
-    <t>格蘭德河</t>
+    <t>格兰德河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%AB%BE%E5%85%8B%E6%96%AF%C2%B7%E6%B3%A2%E7%88%BE%E5%85%8B</t>
   </si>
   <si>
-    <t>詹姆斯·諾克斯·波爾克</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
   </si>
   <si>
@@ -137,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>上加利福尼亞省</t>
+    <t>上加利福尼亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
@@ -155,25 +149,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BC%9D%E6%A0%BC%E9%BB%A8</t>
   </si>
   <si>
-    <t>美國輝格黨</t>
+    <t>美国辉格党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%C2%B7%E6%9E%97%E8%82%AF</t>
   </si>
   <si>
-    <t>亞伯拉罕·林肯</t>
+    <t>亚伯拉罕·林肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%94%E5%85%8B</t>
@@ -197,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>聖地牙哥 (加利福尼亞州)</t>
+    <t>圣地牙哥 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF</t>
   </si>
   <si>
-    <t>洛杉磯</t>
+    <t>洛杉矶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%8B%89%E5%85%8B%E9%B2%81%E6%96%AF</t>
@@ -221,43 +215,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E9%81%94%E7%9B%A7%E4%BD%A9%C2%B7%E4%BC%8A%E9%81%94%E7%88%BE%E6%88%88%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>瓜達盧佩·伊達爾戈條約</t>
+    <t>瓜达卢佩·伊达尔戈条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>下加利福尼亞半島</t>
+    <t>下加利福尼亚半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
@@ -281,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E8%8C%B2%E7%99%BB%E8%B3%BC%E5%9C%B0</t>
   </si>
   <si>
-    <t>蓋茲登購地</t>
+    <t>盖兹登购地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -299,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E5%A2%83</t>
   </si>
   <si>
-    <t>美墨邊境</t>
+    <t>美墨边境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -347,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E9%87%8C%E8%A5%BF%E6%96%AF%C2%B7%E6%A0%BC%E8%98%AD%E7%89%B9</t>
   </si>
   <si>
-    <t>尤里西斯·格蘭特</t>
+    <t>尤里西斯·格兰特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%98%E4%BA%89</t>
@@ -365,19 +359,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E6%9D%8E</t>
   </si>
   <si>
-    <t>羅伯特·李</t>
+    <t>罗伯特·李</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E8%81%AF%E7%9B%9F%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅聯盟國</t>
+    <t>美利坚联盟国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%C2%B7%E6%88%B4%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>傑佛遜·戴維斯</t>
+    <t>杰佛逊·戴维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -389,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E9%BB%98%E7%88%BE%E6%9B%BC%E9%9B%BB%E5%A0%B1</t>
   </si>
   <si>
-    <t>齊默爾曼電報</t>
+    <t>齐默尔曼电报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E5%8F%82%E6%88%98</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>戰爭</t>
+    <t>战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E5%8F%B8%E8%B5%B7%E4%B9%89</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>猶他戰爭</t>
+    <t>犹他战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E6%96%AF-%E5%B7%B4%E5%85%8B%E6%96%AF%E7%89%B9%E6%88%98%E4%BA%89</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美國獨立戰爭</t>
+    <t>美国独立战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%8D%B0%E7%AC%AC%E5%AE%89%E6%88%98%E4%BA%89</t>
@@ -485,13 +479,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A6%8F%E7%88%BE%E6%91%A9%E6%B2%99%E9%81%A0%E5%BE%81</t>
   </si>
   <si>
-    <t>美國福爾摩沙遠征</t>
+    <t>美国福尔摩沙远征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%9C%AA%E6%B4%8B%E6%93%BE</t>
   </si>
   <si>
-    <t>辛未洋擾</t>
+    <t>辛未洋扰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%98%E4%BA%89</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E6%B5%B7%E5%9C%B0</t>
   </si>
   <si>
-    <t>美國佔領海地</t>
+    <t>美国佔领海地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -551,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E5%86%85%E6%88%98</t>
@@ -581,25 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%A5%E4%BE%B5%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>美國入侵巴拿馬</t>
+    <t>美国入侵巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>海灣戰爭</t>
+    <t>海湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%8A%A0%E8%BF%AA%E6%B2%99%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>摩加迪沙之戰</t>
+    <t>摩加迪沙之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯尼亞戰爭</t>
+    <t>波斯尼亚战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E4%B9%8B%E7%8B%90%E8%A1%8C%E5%8A%A8</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>科索沃戰爭</t>
+    <t>科索沃战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BA%A6%E8%BD%B0%E7%82%B8%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
@@ -623,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD_(2001%E5%B9%B4)</t>
   </si>
   <si>
-    <t>阿富汗戰爭 (2001年)</t>
+    <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%98%E4%BA%89</t>
@@ -647,40 +641,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E5%9C%A8%E6%95%98%E5%88%A9%E4%BA%9E%E9%87%9D%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E7%A9%BA%E8%A5%B2</t>
   </si>
   <si>
-    <t>2014年在敘利亞針對伊斯蘭國的空襲</t>
+    <t>2014年在叙利亚针对伊斯兰国的空袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E4%BC%8A%E6%96%AF%E8%98%AD%E5%9C%8B%E7%9A%84%E8%BB%8D%E4%BA%8B%E6%89%93%E6%93%8A</t>
   </si>
   <si>
-    <t>對伊斯蘭國的軍事打擊</t>
+    <t>对伊斯兰国的军事打击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國戰爭列表</t>
+    <t>美国战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
+    <t>美国军事</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1399,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>26</v>
@@ -1425,10 +1410,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>4</v>
@@ -1454,10 +1439,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1483,10 +1468,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1512,10 +1497,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>6</v>
@@ -1541,10 +1526,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1570,10 +1555,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>3</v>
@@ -1599,10 +1584,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1628,10 +1613,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1657,10 +1642,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1686,10 +1671,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1744,10 +1729,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1773,10 +1758,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1802,10 +1787,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1831,10 +1816,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1860,10 +1845,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1918,10 +1903,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1947,10 +1932,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1976,10 +1961,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2034,10 +2019,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2063,10 +2048,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2092,10 +2077,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2121,10 +2106,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2150,10 +2135,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2179,10 +2164,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2208,10 +2193,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2237,10 +2222,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2266,10 +2251,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2295,10 +2280,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2324,10 +2309,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2353,10 +2338,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2382,10 +2367,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2411,10 +2396,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2440,10 +2425,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2469,10 +2454,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2527,10 +2512,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2556,10 +2541,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F53" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2585,10 +2570,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2614,10 +2599,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2643,10 +2628,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2672,10 +2657,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2701,10 +2686,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2730,10 +2715,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2759,10 +2744,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2788,10 +2773,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2817,10 +2802,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2846,10 +2831,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2875,10 +2860,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2904,10 +2889,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2933,10 +2918,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2962,10 +2947,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F67" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -2991,10 +2976,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G68" t="n">
         <v>34</v>
@@ -3020,10 +3005,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3049,10 +3034,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3078,10 +3063,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3107,10 +3092,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3136,10 +3121,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3165,10 +3150,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3194,10 +3179,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3223,10 +3208,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3252,10 +3237,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3281,10 +3266,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3310,10 +3295,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3339,10 +3324,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3368,10 +3353,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3397,10 +3382,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3426,10 +3411,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F83" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3455,10 +3440,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3484,10 +3469,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3513,10 +3498,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3542,10 +3527,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3571,10 +3556,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3600,10 +3585,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3629,10 +3614,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3658,10 +3643,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3687,10 +3672,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3716,10 +3701,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3745,10 +3730,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3774,10 +3759,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3803,10 +3788,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3832,10 +3817,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3861,10 +3846,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3890,10 +3875,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3919,10 +3904,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3948,10 +3933,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3977,10 +3962,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4006,10 +3991,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4035,10 +4020,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4064,10 +4049,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4093,10 +4078,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4122,10 +4107,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4151,10 +4136,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4180,10 +4165,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4209,10 +4194,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4238,10 +4223,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4267,10 +4252,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4296,10 +4281,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4308,64 +4293,6 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1</v>
-      </c>
-      <c r="D114" t="n">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>219</v>
-      </c>
-      <c r="F114" t="s">
-        <v>220</v>
-      </c>
-      <c r="G114" t="n">
-        <v>10</v>
-      </c>
-      <c r="H114" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>0</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1</v>
-      </c>
-      <c r="D115" t="n">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>221</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1</v>
-      </c>
-      <c r="H115" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" t="n">
         <v>3</v>
       </c>
     </row>
